--- a/stats2/tables/table2_3.xlsx
+++ b/stats2/tables/table2_3.xlsx
@@ -470,16 +470,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.1473684210526316</v>
+        <v>0.14</v>
       </c>
       <c r="D2" t="n">
         <v>0.125</v>
       </c>
       <c r="E2" t="n">
-        <v>0.02237</v>
+        <v>0.015</v>
       </c>
       <c r="F2" t="n">
-        <v>0.76053</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="3">
@@ -492,16 +492,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.14</v>
       </c>
       <c r="D3" t="n">
         <v>0.125</v>
       </c>
       <c r="E3" t="n">
-        <v>0.01184</v>
+        <v>0.015</v>
       </c>
       <c r="F3" t="n">
-        <v>0.21316</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="4">
@@ -514,16 +514,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.131578947368421</v>
+        <v>0.135</v>
       </c>
       <c r="D4" t="n">
         <v>0.125</v>
       </c>
       <c r="E4" t="n">
-        <v>0.00658</v>
+        <v>0.01</v>
       </c>
       <c r="F4" t="n">
-        <v>0.06579</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="5">
@@ -536,16 +536,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.1105263157894737</v>
+        <v>0.11</v>
       </c>
       <c r="D5" t="n">
         <v>0.125</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01447</v>
+        <v>0.015</v>
       </c>
       <c r="F5" t="n">
-        <v>0.31842</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
@@ -558,16 +558,16 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.09473684210526316</v>
+        <v>0.095</v>
       </c>
       <c r="D6" t="n">
         <v>0.125</v>
       </c>
       <c r="E6" t="n">
-        <v>0.03026</v>
+        <v>0.03</v>
       </c>
       <c r="F6" t="n">
-        <v>1.39211</v>
+        <v>1.44</v>
       </c>
     </row>
     <row r="7">
@@ -580,16 +580,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.131578947368421</v>
+        <v>0.135</v>
       </c>
       <c r="D7" t="n">
         <v>0.125</v>
       </c>
       <c r="E7" t="n">
-        <v>0.00658</v>
+        <v>0.01</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06579</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="8">
@@ -602,16 +602,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>0.1368421052631579</v>
+        <v>0.14</v>
       </c>
       <c r="D8" t="n">
         <v>0.125</v>
       </c>
       <c r="E8" t="n">
-        <v>0.01184</v>
+        <v>0.015</v>
       </c>
       <c r="F8" t="n">
-        <v>0.21316</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="9">
@@ -624,16 +624,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>0.1105263157894737</v>
+        <v>0.105</v>
       </c>
       <c r="D9" t="n">
         <v>0.125</v>
       </c>
       <c r="E9" t="n">
-        <v>0.01447</v>
+        <v>0.02</v>
       </c>
       <c r="F9" t="n">
-        <v>0.31842</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="10">
@@ -654,10 +654,10 @@
         <v>1</v>
       </c>
       <c r="E10" t="n">
-        <v>0.03026</v>
+        <v>0.03</v>
       </c>
       <c r="F10" t="n">
-        <v>3.34738</v>
+        <v>3.84</v>
       </c>
     </row>
   </sheetData>
